--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Dataset</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>15.16s</t>
-  </si>
-  <si>
-    <t>25.27s</t>
-  </si>
-  <si>
-    <t>505.59s</t>
   </si>
   <si>
     <t>1528.20s</t>
@@ -412,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +457,12 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
@@ -490,50 +490,30 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>1.89</v>
+        <v>3.1202000000000001</v>
       </c>
       <c r="H12">
-        <v>62.27</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>3.1202000000000001</v>
-      </c>
-      <c r="H13">
-        <v>64.540000000000006</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K12" t="s">
         <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
